--- a/Kmer/output/Samples_prepare_pool_20220615.xlsx
+++ b/Kmer/output/Samples_prepare_pool_20220615.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wendy/Documents/CADVIP/Kmer/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C9647418-7865-494F-A43D-2559CEA1C445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4420DA-8B30-CF4D-BD01-F1DA7C038D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2000" windowWidth="33240" windowHeight="16340"/>
+    <workbookView xWindow="2980" yWindow="1980" windowWidth="33240" windowHeight="16340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples_prepare_pool_20220615" sheetId="1" r:id="rId1"/>
+    <sheet name="width_nomix" sheetId="5" r:id="rId2"/>
+    <sheet name="depth_nomix" sheetId="6" r:id="rId3"/>
+    <sheet name="mvd_nomix" sheetId="7" r:id="rId4"/>
+    <sheet name="width" sheetId="2" r:id="rId5"/>
+    <sheet name="depth" sheetId="3" r:id="rId6"/>
+    <sheet name="mvd" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3455" uniqueCount="551">
   <si>
     <t>Old.Name</t>
   </si>
@@ -1547,13 +1553,139 @@
   </si>
   <si>
     <t>Make-up samples for 61 (XXX_100_67)</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>mixed with POP29_20, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP25_77, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP29_77, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_27, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_27, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP29_79, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP25_79, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_15, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP25_84, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_54, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP31_51, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_46, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_41, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_84, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP30_84, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP29_65, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP25_65, can be kept</t>
+  </si>
+  <si>
+    <t>Bulk1</t>
+  </si>
+  <si>
+    <t>Bulk2</t>
+  </si>
+  <si>
+    <t>mixed with POP31_53, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP27_53, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP30_15, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP29_84, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_54, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP27_51, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_88, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_88, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_84, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_46, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_41, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP25_20, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_52, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_52, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with pOP26_72, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP30_72, need to discard</t>
+  </si>
+  <si>
+    <t>mixed with POP26_33, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP30_33, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with POP30_07, can be kept</t>
+  </si>
+  <si>
+    <t>mixed with pOP26_07, can be kept</t>
+  </si>
+  <si>
+    <t>Seq.Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1697,6 +1829,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2064,12 +2203,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2424,14 +2566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F144" activeCellId="8" sqref="F15 F18 F25 F29 F36:F38 F51 F71 F75 F144:F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11580,4 +11722,6661 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="72" fitToWidth="2" fitToHeight="4" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD6A141-55B4-9A4A-BF03-4850DAE0832B}">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>528</v>
+      </c>
+      <c r="B67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>529</v>
+      </c>
+      <c r="B68">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A044D5C9-C2D8-A845-A6F6-E39AB8482CE9}">
+  <dimension ref="A1:E72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>528</v>
+      </c>
+      <c r="B71">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>529</v>
+      </c>
+      <c r="B72">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34BF110-F4D7-E648-81DC-93EE8FD03AC3}">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="2">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>528</v>
+      </c>
+      <c r="B67">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>529</v>
+      </c>
+      <c r="B68">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65441AF1-135B-2A4A-B859-ED61E2EB6074}">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAAB352-10A3-FD4B-B737-E2EC7BCC4B50}">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" s="5">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F52F3639-4FC9-1A40-82BA-EED66C1E0A74}">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="2">
+        <v>2</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C47" s="2">
+        <v>2</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="2">
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C51" s="2">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C52" s="2">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C66" s="2">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C67" s="2">
+        <v>2</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C68" s="2">
+        <v>2</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C69" s="2">
+        <v>2</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C70" s="2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="2">
+        <v>2</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C74" s="2">
+        <v>2</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>